--- a/Andrew-annotations/PLXS_Q1_2021.xlsx
+++ b/Andrew-annotations/PLXS_Q1_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B4F842-8DF2-4979-95AC-44D289ED6051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE57675-2EEC-4967-BF99-1275B63B6677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3255" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -708,13 +708,13 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -871,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -906,13 +906,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -964,19 +964,19 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -996,19 +996,19 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1092,10 +1092,10 @@
         <v>42</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1162,13 +1162,13 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1191,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1226,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>56</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1322,13 +1322,13 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1418,13 +1418,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1444,7 +1444,7 @@
         <v>65</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
